--- a/接线汇总.xlsx
+++ b/接线汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12556\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Others\Learning\MCU\32\myproject\MYCAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE09132-9A47-4028-A85E-5029861D7A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA7694-4B59-42EE-A231-665DDABBD6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="410" windowWidth="17930" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,426 +82,427 @@
     <t>PC15</t>
   </si>
   <si>
+    <t xml:space="preserve">OSC_IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSC_OUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O </t>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRST </t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSA </t>
+  </si>
+  <si>
+    <t>VSSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDDA </t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA0-WKUP </t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>WKUP/USART2_CTS/ADC12_IN0/TIM2_CH1_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA1 </t>
+  </si>
+  <si>
+    <t>USART2_RTS/ADC12_IN1/TIM2_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA2 </t>
+  </si>
+  <si>
+    <t>USART2_TX/ADC12_IN2/TIM2_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA3 </t>
+  </si>
+  <si>
+    <t>USART2_RX/ADC12_IN3/TIM2_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA4 </t>
+  </si>
+  <si>
+    <t>SPI1_NSS/USART2_CK/ADC12_IN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA5 </t>
+  </si>
+  <si>
+    <t>SPI1_SCK/ADC12_IN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA6 </t>
+  </si>
+  <si>
+    <t>SPI1_MISO/ADC12_IN6/TIM3_CH1</t>
+  </si>
+  <si>
+    <t>TIM1_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA7 </t>
+  </si>
+  <si>
+    <t>SPI1_MOSI/ADC12_IN7/TIM3_CH2</t>
+  </si>
+  <si>
+    <t>TIM1_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB0 </t>
+  </si>
+  <si>
+    <t>TIM1_CH2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB1 </t>
+  </si>
+  <si>
+    <t>ADC12_IN9/TIM3_CH4</t>
+  </si>
+  <si>
+    <t>TIM1_CH3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT </t>
+  </si>
+  <si>
+    <t>PB2/BOOT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB10 </t>
+  </si>
+  <si>
+    <t>I2C2_SCL/USART3_TX</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB11 </t>
+  </si>
+  <si>
+    <t>I2C2_SDA/USART3_RX</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS_1 </t>
+  </si>
+  <si>
+    <t>VSS_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD_1 </t>
+  </si>
+  <si>
+    <t>VDD_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB12 </t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>SPI2_NSS/I2C2_SMBAI/USART3_CK/TIM1_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB13 </t>
+  </si>
+  <si>
+    <t>SPI2_SCK/USART3_CTS/TIM1_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB14 </t>
+  </si>
+  <si>
+    <t>SPI2_MISO/USART3_RTS/TIM1_CH2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB15 </t>
+  </si>
+  <si>
+    <t>SPI2_MOSI/TIM1_CH3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA8 </t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>USART1_CK/TIM1_CH1/MCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA9 </t>
+  </si>
+  <si>
+    <t>USART1_TX/TIM1_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA10 </t>
+  </si>
+  <si>
+    <t>USART1_RX/TIM1_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA11 </t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>USART1_CTS/USBDM/CAN_RX/TIM1_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA12 </t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>USART1_RTS/USBDP/CAN_TX/TIM1_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTMS/SWDIO </t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS_2 </t>
+  </si>
+  <si>
+    <t>VSS_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD_2 </t>
+  </si>
+  <si>
+    <t>VDD_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTCK/SWCLK </t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTDI </t>
+  </si>
+  <si>
+    <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB3 </t>
+  </si>
+  <si>
+    <t>JTDO</t>
+  </si>
+  <si>
+    <t>PB3/TRACESWO/TIM2_CH2/SPI1_SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJTRST </t>
+  </si>
+  <si>
+    <t>PB4/TIM3_CH1/SPI1_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SMBAI </t>
+  </si>
+  <si>
+    <t>TIM3_CH2/SPI1_MOSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB6 </t>
+  </si>
+  <si>
+    <t>I2C1_SCL/TIM4_CH1</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB7 </t>
+  </si>
+  <si>
+    <t>I2C1_SDA/TIM4_CH2</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOT0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8 </t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
+  </si>
+  <si>
+    <t>I2C1_SCL/CAN_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB9 </t>
+  </si>
+  <si>
+    <t>TIM4_CH4</t>
+  </si>
+  <si>
+    <t>I2C1_SDA/CAN_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS_3 </t>
+  </si>
+  <si>
+    <t>VSS_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD_3 </t>
+  </si>
+  <si>
+    <t>VDD_3</t>
+  </si>
+  <si>
+    <t>OLED-SCK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED-SDA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU6050-SCL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050-SDA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外接收器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-SR04-Trig1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-SR04-Echo1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-SR04-Trig2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-SR04-Echo2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-IN3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-IN4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-IN1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-IN2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-IN1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-IN2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-IN3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-IN4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-ENB(FL)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n1-ENA(FR)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-ENA(BL)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298n2-ENB(BR)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>OSC32_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSC_IN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I </t>
-  </si>
-  <si>
-    <t>OSC_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSC_OUT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O </t>
-  </si>
-  <si>
-    <t>OSC_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRST </t>
-  </si>
-  <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSA </t>
-  </si>
-  <si>
-    <t>VSSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDDA </t>
-  </si>
-  <si>
-    <t>VDDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA0-WKUP </t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>WKUP/USART2_CTS/ADC12_IN0/TIM2_CH1_ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA1 </t>
-  </si>
-  <si>
-    <t>USART2_RTS/ADC12_IN1/TIM2_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA2 </t>
-  </si>
-  <si>
-    <t>USART2_TX/ADC12_IN2/TIM2_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA3 </t>
-  </si>
-  <si>
-    <t>USART2_RX/ADC12_IN3/TIM2_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA4 </t>
-  </si>
-  <si>
-    <t>SPI1_NSS/USART2_CK/ADC12_IN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA5 </t>
-  </si>
-  <si>
-    <t>SPI1_SCK/ADC12_IN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA6 </t>
-  </si>
-  <si>
-    <t>SPI1_MISO/ADC12_IN6/TIM3_CH1</t>
-  </si>
-  <si>
-    <t>TIM1_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA7 </t>
-  </si>
-  <si>
-    <t>SPI1_MOSI/ADC12_IN7/TIM3_CH2</t>
-  </si>
-  <si>
-    <t>TIM1_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB0 </t>
-  </si>
-  <si>
-    <t>TIM1_CH2N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1 </t>
-  </si>
-  <si>
-    <t>ADC12_IN9/TIM3_CH4</t>
-  </si>
-  <si>
-    <t>TIM1_CH3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT </t>
-  </si>
-  <si>
-    <t>PB2/BOOT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB10 </t>
-  </si>
-  <si>
-    <t>I2C2_SCL/USART3_TX</t>
-  </si>
-  <si>
-    <t>TIM2_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB11 </t>
-  </si>
-  <si>
-    <t>I2C2_SDA/USART3_RX</t>
-  </si>
-  <si>
-    <t>TIM2_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_1 </t>
-  </si>
-  <si>
-    <t>VSS_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD_1 </t>
-  </si>
-  <si>
-    <t>VDD_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB12 </t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>SPI2_NSS/I2C2_SMBAI/USART3_CK/TIM1_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB13 </t>
-  </si>
-  <si>
-    <t>SPI2_SCK/USART3_CTS/TIM1_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB14 </t>
-  </si>
-  <si>
-    <t>SPI2_MISO/USART3_RTS/TIM1_CH2N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB15 </t>
-  </si>
-  <si>
-    <t>SPI2_MOSI/TIM1_CH3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA8 </t>
-  </si>
-  <si>
-    <t>PA8</t>
-  </si>
-  <si>
-    <t>USART1_CK/TIM1_CH1/MCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA9 </t>
-  </si>
-  <si>
-    <t>USART1_TX/TIM1_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA10 </t>
-  </si>
-  <si>
-    <t>USART1_RX/TIM1_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA11 </t>
-  </si>
-  <si>
-    <t>PA11</t>
-  </si>
-  <si>
-    <t>USART1_CTS/USBDM/CAN_RX/TIM1_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA12 </t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>USART1_RTS/USBDP/CAN_TX/TIM1_ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTMS/SWDIO </t>
-  </si>
-  <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_2 </t>
-  </si>
-  <si>
-    <t>VSS_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD_2 </t>
-  </si>
-  <si>
-    <t>VDD_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTCK/SWCLK </t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTDI </t>
-  </si>
-  <si>
-    <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3 </t>
-  </si>
-  <si>
-    <t>JTDO</t>
-  </si>
-  <si>
-    <t>PB3/TRACESWO/TIM2_CH2/SPI1_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NJTRST </t>
-  </si>
-  <si>
-    <t>PB4/TIM3_CH1/SPI1_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1_SMBAI </t>
-  </si>
-  <si>
-    <t>TIM3_CH2/SPI1_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB6 </t>
-  </si>
-  <si>
-    <t>I2C1_SCL/TIM4_CH1</t>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB7 </t>
-  </si>
-  <si>
-    <t>I2C1_SDA/TIM4_CH2</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOT0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB8 </t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
-    <t>I2C1_SCL/CAN_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB9 </t>
-  </si>
-  <si>
-    <t>TIM4_CH4</t>
-  </si>
-  <si>
-    <t>I2C1_SDA/CAN_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_3 </t>
-  </si>
-  <si>
-    <t>VSS_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD_3 </t>
-  </si>
-  <si>
-    <t>VDD_3</t>
-  </si>
-  <si>
-    <t>OLED-SCK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED-SDA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU6050-SCL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPU6050-SDA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外接收器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC-SR04-Trig1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC-SR04-Echo1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC-SR04-Trig2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC-SR04-Echo2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-IN3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-IN4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-IN1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-IN2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-IN1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-IN2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-IN3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-IN4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-ENB(FL)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n1-ENA(FR)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-ENA(BL)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298n2-ENB(BR)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +565,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -633,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +685,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,7 +971,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1078,8 +1089,8 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
+      <c r="F6" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1088,14 +1099,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1105,14 +1116,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1122,14 +1133,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1139,14 +1150,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1156,14 +1167,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1173,21 +1184,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1195,21 +1206,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,21 +1228,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1239,17 +1250,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="12"/>
@@ -1259,21 +1270,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,21 +1292,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,23 +1314,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,23 +1338,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1351,23 +1362,23 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1375,23 +1386,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,16 +1410,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1418,25 +1429,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="H23" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1470,14 +1481,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1487,14 +1498,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1504,23 +1515,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1528,23 +1539,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,23 +1563,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1576,19 +1587,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1597,19 +1608,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1618,19 +1629,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -1639,19 +1650,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -1660,23 +1671,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1684,23 +1695,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,20 +1719,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,14 +1740,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1746,14 +1757,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1763,20 +1774,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,20 +1795,20 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,20 +1816,20 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,20 +1837,20 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,23 +1858,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="H43" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1871,25 +1882,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="H44" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,25 +1908,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="H45" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,14 +1934,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -1940,25 +1951,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,25 +1977,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="H48" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1992,14 +2003,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2009,14 +2020,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
